--- a/Opcodes.xlsx
+++ b/Opcodes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pawel\Desktop\CPU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pawel\Desktop\GitHub\!!! ARCHIVE\MicroCPU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ADA98CA-A07E-4F92-AA0F-E041DC1EAD37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7AB4EBB-A515-440F-83FD-D0E5FEBD0BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{835C4985-0918-41C3-8F6B-56730E53DE80}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="143">
   <si>
     <t>PCR</t>
   </si>
@@ -78,9 +79,6 @@
     <t>PCI - Program Counter Increment</t>
   </si>
   <si>
-    <t>MAW - Memory Address Read</t>
-  </si>
-  <si>
     <t>IRW - Instruction Register Write</t>
   </si>
   <si>
@@ -174,24 +172,12 @@
     <t>XOR</t>
   </si>
   <si>
-    <t>JNE addr</t>
-  </si>
-  <si>
     <t>JEQ addr</t>
   </si>
   <si>
     <t>JLE</t>
   </si>
   <si>
-    <t>JG addr</t>
-  </si>
-  <si>
-    <t>JGE addr</t>
-  </si>
-  <si>
-    <t>JL addr</t>
-  </si>
-  <si>
     <t>JLE addr</t>
   </si>
   <si>
@@ -318,9 +304,6 @@
     <t>JNQ</t>
   </si>
   <si>
-    <t>MMR - Memor Read</t>
-  </si>
-  <si>
     <t>ADD - ALU Add</t>
   </si>
   <si>
@@ -457,6 +440,33 @@
   </si>
   <si>
     <t>0x02 0x00</t>
+  </si>
+  <si>
+    <t>OAW - Output A Write</t>
+  </si>
+  <si>
+    <t>OBW - Output B Write</t>
+  </si>
+  <si>
+    <t>OCW - Output C Write</t>
+  </si>
+  <si>
+    <t>ODW - Output D Write</t>
+  </si>
+  <si>
+    <t>MAW - Memory Address Write</t>
+  </si>
+  <si>
+    <t>JNQ addr</t>
+  </si>
+  <si>
+    <t>JGR addr</t>
+  </si>
+  <si>
+    <t>JLQ addr</t>
+  </si>
+  <si>
+    <t>JGQ addr</t>
   </si>
 </sst>
 </file>
@@ -1112,8 +1122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCA41B3-2322-4437-B861-55A90CCDD839}">
   <dimension ref="B2:AO103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AC23" sqref="AC23"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P66" sqref="P66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1127,7 +1137,7 @@
   <sheetData>
     <row r="2" spans="2:41" x14ac:dyDescent="0.25">
       <c r="AJ2" s="24" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="AK2" s="24"/>
       <c r="AL2" s="24"/>
@@ -1135,10 +1145,10 @@
     </row>
     <row r="3" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B3" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>0</v>
@@ -1162,7 +1172,7 @@
         <v>6</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L3" s="12" t="s">
         <v>7</v>
@@ -1174,67 +1184,67 @@
         <v>9</v>
       </c>
       <c r="O3" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="P3" s="12" t="s">
+      <c r="Q3" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="R3" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="Q3" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="R3" s="12" t="s">
+      <c r="S3" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="S3" s="12" t="s">
+      <c r="T3" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="U3" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="T3" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="U3" s="12" t="s">
+      <c r="V3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="W3" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="X3" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y3" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z3" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA3" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB3" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC3" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD3" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE3" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF3" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG3" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI3" s="12" t="s">
         <v>42</v>
-      </c>
-      <c r="V3" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="W3" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="X3" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y3" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z3" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="AA3" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="AB3" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC3" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD3" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE3" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF3" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG3" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH3" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI3" s="12" t="s">
-        <v>43</v>
       </c>
       <c r="AJ3" s="12">
         <v>1</v>
@@ -1254,11 +1264,11 @@
     </row>
     <row r="4" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B4" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -1267,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1">
         <v>0</v>
@@ -1282,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -1355,11 +1365,11 @@
       </c>
       <c r="AJ4" s="2" t="str">
         <f>"0x" &amp; DEC2HEX(BIN2DEC(_xlfn.TEXTJOIN("",FALSE,D4,E4,F4,G4,H4,I4,J4,K4)))</f>
-        <v>0x90</v>
+        <v>0x0</v>
       </c>
       <c r="AK4" s="2" t="str">
         <f>"0x" &amp; DEC2HEX(BIN2DEC(_xlfn.TEXTJOIN("",FALSE,L4,M4,N4,O4,P4,Q4,R4,S4)))</f>
-        <v>0x0</v>
+        <v>0x80</v>
       </c>
       <c r="AL4" s="2" t="str">
         <f>"0x" &amp; DEC2HEX(BIN2DEC(_xlfn.TEXTJOIN("",FALSE,T4,U4,V4,W4,X4,Y4,Z4,AA4)))</f>
@@ -1494,10 +1504,10 @@
     </row>
     <row r="6" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D6" s="19">
         <v>0</v>
@@ -1612,15 +1622,15 @@
         <v>0x1</v>
       </c>
       <c r="AO6" t="s">
-        <v>13</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D7" s="14">
         <v>1</v>
@@ -1735,7 +1745,7 @@
         <v>0x0</v>
       </c>
       <c r="AO7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="2:41" x14ac:dyDescent="0.25">
@@ -1854,7 +1864,7 @@
         <v>0x0</v>
       </c>
       <c r="AO8" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1973,15 +1983,15 @@
         <v>0x2</v>
       </c>
       <c r="AO9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D10" s="5">
         <v>1</v>
@@ -2096,7 +2106,7 @@
         <v>0x0</v>
       </c>
       <c r="AO10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="2:41" x14ac:dyDescent="0.25">
@@ -2215,7 +2225,7 @@
         <v>0x0</v>
       </c>
       <c r="AO11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="2:41" x14ac:dyDescent="0.25">
@@ -2334,7 +2344,7 @@
         <v>0x80</v>
       </c>
       <c r="AO12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2453,15 +2463,15 @@
         <v>0x2</v>
       </c>
       <c r="AO13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
-        <v>45</v>
+        <v>139</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D14" s="5">
         <v>1</v>
@@ -2576,7 +2586,7 @@
         <v>0x0</v>
       </c>
       <c r="AO14" t="s">
-        <v>19</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="2:41" x14ac:dyDescent="0.25">
@@ -2695,7 +2705,7 @@
         <v>0x40</v>
       </c>
       <c r="AO15" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="2:41" x14ac:dyDescent="0.25">
@@ -2814,7 +2824,7 @@
         <v>0x0</v>
       </c>
       <c r="AO16" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2933,15 +2943,15 @@
         <v>0x2</v>
       </c>
       <c r="AO17" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B18" s="16" t="s">
-        <v>48</v>
+        <v>140</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D18" s="15">
         <v>1</v>
@@ -3056,7 +3066,7 @@
         <v>0x0</v>
       </c>
       <c r="AO18" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="2:41" x14ac:dyDescent="0.25">
@@ -3175,7 +3185,7 @@
         <v>0x0</v>
       </c>
       <c r="AO19" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="2:41" x14ac:dyDescent="0.25">
@@ -3294,7 +3304,7 @@
         <v>0x20</v>
       </c>
       <c r="AO20" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3413,15 +3423,15 @@
         <v>0x2</v>
       </c>
       <c r="AO21" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
-        <v>49</v>
+        <v>142</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D22" s="5">
         <v>1</v>
@@ -3536,7 +3546,7 @@
         <v>0x0</v>
       </c>
       <c r="AO22" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="2:41" x14ac:dyDescent="0.25">
@@ -3655,7 +3665,7 @@
         <v>0x0</v>
       </c>
       <c r="AO23" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="2:41" x14ac:dyDescent="0.25">
@@ -3774,7 +3784,7 @@
         <v>0x10</v>
       </c>
       <c r="AO24" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3893,15 +3903,15 @@
         <v>0x2</v>
       </c>
       <c r="AO25" t="s">
-        <v>103</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B26" s="17" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D26" s="11">
         <v>1</v>
@@ -4016,7 +4026,7 @@
         <v>0x0</v>
       </c>
       <c r="AO26" t="s">
-        <v>102</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="2:41" x14ac:dyDescent="0.25">
@@ -4135,7 +4145,7 @@
         <v>0x0</v>
       </c>
       <c r="AO27" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="2:41" x14ac:dyDescent="0.25">
@@ -4254,7 +4264,7 @@
         <v>0x8</v>
       </c>
       <c r="AO28" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4373,15 +4383,15 @@
         <v>0x2</v>
       </c>
       <c r="AO29" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
-        <v>51</v>
+        <v>141</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D30" s="5">
         <v>1</v>
@@ -4496,7 +4506,7 @@
         <v>0x0</v>
       </c>
       <c r="AO30" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="2:41" x14ac:dyDescent="0.25">
@@ -4615,7 +4625,7 @@
         <v>0x0</v>
       </c>
       <c r="AO31" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="2:41" x14ac:dyDescent="0.25">
@@ -4734,10 +4744,10 @@
         <v>0x4</v>
       </c>
       <c r="AO32" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
-    <row r="33" spans="2:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="22"/>
       <c r="C33" s="22"/>
       <c r="D33" s="10">
@@ -4852,13 +4862,16 @@
         <f t="shared" si="19"/>
         <v>0x2</v>
       </c>
+      <c r="AO33" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="34" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D34" s="14">
         <v>1</v>
@@ -4972,8 +4985,11 @@
         <f t="shared" si="19"/>
         <v>0x0</v>
       </c>
+      <c r="AO34" t="s">
+        <v>93</v>
+      </c>
     </row>
-    <row r="35" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="1">
@@ -5089,7 +5105,7 @@
         <v>0x0</v>
       </c>
     </row>
-    <row r="36" spans="2:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="22"/>
       <c r="C36" s="22"/>
       <c r="D36" s="10">
@@ -5205,12 +5221,12 @@
         <v>0x2</v>
       </c>
     </row>
-    <row r="37" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B37" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D37" s="11">
         <v>1</v>
@@ -5325,7 +5341,7 @@
         <v>0x0</v>
       </c>
     </row>
-    <row r="38" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B38" s="3"/>
       <c r="C38" s="4"/>
       <c r="D38" s="1">
@@ -5441,7 +5457,7 @@
         <v>0x0</v>
       </c>
     </row>
-    <row r="39" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="1">
@@ -5557,7 +5573,7 @@
         <v>0x0</v>
       </c>
     </row>
-    <row r="40" spans="2:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="22"/>
       <c r="C40" s="22"/>
       <c r="D40" s="10">
@@ -5673,12 +5689,12 @@
         <v>0x2</v>
       </c>
     </row>
-    <row r="41" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B41" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D41" s="11">
         <v>1</v>
@@ -5793,7 +5809,7 @@
         <v>0x0</v>
       </c>
     </row>
-    <row r="42" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B42" s="3"/>
       <c r="C42" s="4"/>
       <c r="D42" s="1">
@@ -5909,7 +5925,7 @@
         <v>0x0</v>
       </c>
     </row>
-    <row r="43" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
       <c r="C43" s="4"/>
       <c r="D43" s="1">
@@ -6025,7 +6041,7 @@
         <v>0x0</v>
       </c>
     </row>
-    <row r="44" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="1">
@@ -6141,7 +6157,7 @@
         <v>0x0</v>
       </c>
     </row>
-    <row r="45" spans="2:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="22"/>
       <c r="C45" s="22"/>
       <c r="D45" s="10">
@@ -6257,12 +6273,12 @@
         <v>0x2</v>
       </c>
     </row>
-    <row r="46" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B46" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D46" s="11">
         <v>1</v>
@@ -6377,7 +6393,7 @@
         <v>0x0</v>
       </c>
     </row>
-    <row r="47" spans="2:39" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="1">
@@ -6493,7 +6509,7 @@
         <v>0x0</v>
       </c>
     </row>
-    <row r="48" spans="2:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="22"/>
       <c r="C48" s="22"/>
       <c r="D48" s="10">
@@ -6611,10 +6627,10 @@
     </row>
     <row r="49" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B49" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D49" s="11">
         <v>1</v>
@@ -7079,10 +7095,10 @@
     </row>
     <row r="53" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D53" s="11">
         <v>1</v>
@@ -7663,10 +7679,10 @@
     </row>
     <row r="58" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B58" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D58" s="11">
         <v>1</v>
@@ -8131,10 +8147,10 @@
     </row>
     <row r="62" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B62" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D62" s="11">
         <v>1</v>
@@ -8715,10 +8731,10 @@
     </row>
     <row r="67" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B67" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D67" s="11">
         <v>1</v>
@@ -9183,10 +9199,10 @@
     </row>
     <row r="71" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B71" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D71" s="11">
         <v>1</v>
@@ -9767,10 +9783,10 @@
     </row>
     <row r="76" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B76" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D76" s="1">
         <v>0</v>
@@ -10003,10 +10019,10 @@
     </row>
     <row r="78" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B78" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D78" s="5">
         <v>0</v>
@@ -10239,10 +10255,10 @@
     </row>
     <row r="80" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B80" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D80" s="5">
         <v>0</v>
@@ -10475,10 +10491,10 @@
     </row>
     <row r="82" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B82" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D82" s="5">
         <v>0</v>
@@ -10711,10 +10727,10 @@
     </row>
     <row r="84" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B84" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D84" s="5">
         <v>0</v>
@@ -10947,10 +10963,10 @@
     </row>
     <row r="86" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B86" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D86" s="5">
         <v>0</v>
@@ -11183,10 +11199,10 @@
     </row>
     <row r="88" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B88" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D88" s="5">
         <v>0</v>
@@ -11419,10 +11435,10 @@
     </row>
     <row r="90" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B90" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D90" s="5">
         <v>0</v>
@@ -11655,10 +11671,10 @@
     </row>
     <row r="92" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B92" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D92" s="5">
         <v>0</v>
@@ -11891,10 +11907,10 @@
     </row>
     <row r="94" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B94" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D94" s="5">
         <v>0</v>
@@ -12127,10 +12143,10 @@
     </row>
     <row r="96" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B96" s="4" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D96" s="5">
         <v>0</v>
@@ -12363,10 +12379,10 @@
     </row>
     <row r="98" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B98" s="4" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D98" s="5">
         <v>0</v>
@@ -12599,10 +12615,10 @@
     </row>
     <row r="100" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B100" s="4" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D100" s="5">
         <v>0</v>
@@ -12835,10 +12851,10 @@
     </row>
     <row r="102" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B102" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D102" s="5">
         <v>0</v>
@@ -13135,6 +13151,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13153,180 +13170,180 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="E3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F4" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E5" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E6" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F6" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E7" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C8" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E8" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F8" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F9" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F10" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F11" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F12" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="F13" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F14" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F15" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F16" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F17" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F18" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
